--- a/data/mapping_tables.xlsx
+++ b/data/mapping_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maerskbroker-my.sharepoint.com/personal/kbo_maerskbroker_com/Documents/Documents/M scraper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="385" documentId="8_{E82970A2-BBD4-4F32-BE27-31237F44A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F82863B-A3F2-46E9-9085-CD0C2B051FD7}"/>
+  <xr:revisionPtr revIDLastSave="637" documentId="8_{E82970A2-BBD4-4F32-BE27-31237F44A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B89CBA-9803-41DF-9320-A846EF582A4E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BAC1D2B-409C-4654-934D-3906D9663A7C}"/>
   </bookViews>
@@ -57,10 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="127">
-  <si>
-    <t>status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="183">
   <si>
     <t>status_en</t>
   </si>
@@ -438,13 +435,185 @@
   </si>
   <si>
     <t>Ny Ellebjerg</t>
+  </si>
+  <si>
+    <t>Passagerer til og fra Lufthavnen skal skifte tog på Femøren</t>
+  </si>
+  <si>
+    <t>Vores sporarbejde er 15-20 min. forsinket her til morgen</t>
+  </si>
+  <si>
+    <t>Bemærk vedligehold! Fra kl. 00:00-05:00 er M1/M2 lukket. Metrobusser indsættes ml. Vanløse - CPH Lufthavn &amp; Vanløse - Vestamager. Metrobusserne kører hvert 20. minut</t>
+  </si>
+  <si>
+    <t>Vi er ramt af forsinkelser. Vi kører snart normalt igen</t>
+  </si>
+  <si>
+    <t>Vi er ramt af forsinkelser. Vi kører snart normalt!</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille grundet tekniske problemer. Intet tidsestimat for genoptaget drift.</t>
+  </si>
+  <si>
+    <t>Passagerer der skal til Orientkaj skal skifte tog på Østerport.</t>
+  </si>
+  <si>
+    <t>PA: (DK/UK): Passagerer der skal til Orientkaj skal skifte tog på Østerport. Forvent længere rejsetid i begge spor.</t>
+  </si>
+  <si>
+    <t>Passager til Orientkaj, skal skifte tog på Østerport.</t>
+  </si>
+  <si>
+    <t>I øjeblikket er der ingen drift i spor 2 mellem Østerport og KH men der er normal drift i spor 1. M4: Ingen drift mellem Østerport og Nordhavn, brug evt. S-tog i stedet for.</t>
+  </si>
+  <si>
+    <t>I øjeblikket er der ingen drift i spor 2 mellem Østerport og KH men der er normal drift i spor 1. M4: Ingen drift mellem Østerport og Nordhavn</t>
+  </si>
+  <si>
+    <t>Der i øjeblikket ingen drift i spor 2 men normal drift i spor 1. ingen togdrift på M4 linjen</t>
+  </si>
+  <si>
+    <t>M3: Der i øjeblikket ingen drift i spor 2 men normal drift i spor 1. M4: Ingen togdrift</t>
+  </si>
+  <si>
+    <t>Alle tog holder i øjeblikket stille grundet tekniske problemer ved Østerport</t>
+  </si>
+  <si>
+    <t>Ingen drift Christianshavn-Lufthavnen.</t>
+  </si>
+  <si>
+    <t>Ingen drift Vanløse-Frederiksberg og Christianshavn-Lufthavnen.</t>
+  </si>
+  <si>
+    <t>Ingen tog drift, 10-15 min forsinkelse.</t>
+  </si>
+  <si>
+    <t>Flere tog holder stille, problemer ved Femøren og Vanløse.</t>
+  </si>
+  <si>
+    <t>Ingen tog drift, Vanløse-Frederiksberg. 8 min forsinkelse.</t>
+  </si>
+  <si>
+    <t>Ingen tog drift Vanløse til Frederiksberg.</t>
+  </si>
+  <si>
+    <t>Vi kan i øjeblikket ikke benytte spor 1 på Christianshavn, tag toget i spor 2 til Kongens Nytorv og skift til tog mod Vestamager eller Lufthavnen derfra</t>
+  </si>
+  <si>
+    <t>Vi holder stille i begge spor grundet tekniske problemer med et tog på Københavns Hovedbanegård. Intet tidsestimat for genoptaget drift.</t>
+  </si>
+  <si>
+    <t>Ingen tog standser på Aksel Møllers Have grundet en brandalarm på stationen.</t>
+  </si>
+  <si>
+    <t>Forsinkelser til/fra Vestamager grundet tekniske problemer ved Sundby.</t>
+  </si>
+  <si>
+    <t>Ingen tog stopper på Fasanvej grundet en brandalarm.</t>
+  </si>
+  <si>
+    <t>Ingen tog standser på Vibenhus Runddel, det skyldes en brandalarm</t>
+  </si>
+  <si>
+    <t>Flere tog holder stille, 5-8 min forsinkelse.</t>
+  </si>
+  <si>
+    <t>M4: Ingen togdrift mellem Østerport og Orientkaj i begge retninger før kl. 02:50, grundet tekniske problemer.</t>
+  </si>
+  <si>
+    <t>M1_All, M2_All</t>
+  </si>
+  <si>
+    <t>Nordhavn, Orientkaj</t>
+  </si>
+  <si>
+    <t>M4_All</t>
+  </si>
+  <si>
+    <t>Nordhavn, Østerport, Marmorkirken, Kongens Nytorv, Gammel Strand, Rådhuspladsen, Københavns Hovedbanegård</t>
+  </si>
+  <si>
+    <t>Amagerbro, Lergravsparken, Øresund, Amager Strand, Femøren, Kastrup, CPH Lufthavn</t>
+  </si>
+  <si>
+    <t>Amagerbro, Lergravsparken, Øresund, Amager Strand, Femøren, Kastrup, CPH Lufthavn, Vanløse, Flintholm, Lindevang, Fasanvej</t>
+  </si>
+  <si>
+    <t>Femøren, Vanløse</t>
+  </si>
+  <si>
+    <t>Vanløse, Flintholm, Lindevang, Fasanvej</t>
+  </si>
+  <si>
+    <t>Amagerbro, Lergravsparken, Øresund, Amager Strand, Femøren, Kastrup, CPH Lufthavn, Islands Brygge, DR Byen, Sundby, Bella Center, Ørestad, Vestamager</t>
+  </si>
+  <si>
+    <t>Islands Brygge, DR Byen, Sundby, Bella Center, Ørestad, Vestamager</t>
+  </si>
+  <si>
+    <t>Vibenhus Runddel</t>
+  </si>
+  <si>
+    <t>Til/fra CPH Lufthavnen skal du skifte tog på Femøren. Længere rejsetid må forventes.</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille, det skyldes tog med fejlramt dør på Christianshavn</t>
+  </si>
+  <si>
+    <t>Flere tog holder stille, det skyldes problemer med en togdør på Christianshavn.
+Til/fra CPH Lufthavnen, skal du skifte tog på Femøren</t>
+  </si>
+  <si>
+    <t>Vi stopper ikke på Amager Strand spor1.</t>
+  </si>
+  <si>
+    <t>Togskifte på Øresund til og fra Lufthavnen.</t>
+  </si>
+  <si>
+    <t>Tog skifte til og fra Lufthavnen.</t>
+  </si>
+  <si>
+    <t>Vores sporarbejde er ca. 10 min. forsinket</t>
+  </si>
+  <si>
+    <t>Vores sporarbejde er ca. 25 min. forsinket</t>
+  </si>
+  <si>
+    <t>Ingen tog drift Vanløse-Nørreport.</t>
+  </si>
+  <si>
+    <t>10 min forsinkelse på hele banen.</t>
+  </si>
+  <si>
+    <t>Ingen tog drift Vanløse-Frederiksberg.</t>
+  </si>
+  <si>
+    <t>Øresund, Femøren, Kastrup, CPH Lufthavn</t>
+  </si>
+  <si>
+    <t>Vanløse, Flintholm, Lindevang, Fasanvej, Frederiksberg</t>
+  </si>
+  <si>
+    <t>Vanløse, Flintholm, Lindevang, Fasanvej, Frederiksberg, Forum, Nørreport</t>
+  </si>
+  <si>
+    <t>Nattens sporarbejde er forsinket. Vi forventer at køre igen i spor 2 kl. 5:30. Benyt spor 1 i stedet.</t>
+  </si>
+  <si>
+    <t>Vi stopper ikke på Amager Strand spor 1.</t>
+  </si>
+  <si>
+    <t>status_dk</t>
+  </si>
+  <si>
+    <t>Lukket frem til kl. 05:00 pga. sporarbejde. Metrobusser kører hvert 20. minut. Se afgangstider på rejseplanen.dk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,12 +626,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,10 +718,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}" name="Table2" displayName="Table2" ref="A1:I18" totalsRowShown="0">
-  <autoFilter ref="A1:I18" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}" name="Table2" displayName="Table2" ref="A1:I60" totalsRowShown="0">
+  <autoFilter ref="A1:I60" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A2B24526-B093-4F61-8528-751DBACD919A}" name="status" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A2B24526-B093-4F61-8528-751DBACD919A}" name="status_dk" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{AF80EE63-ECB6-42AC-8C94-7AE1E4203C14}" name="status_en" dataDxfId="9"/>
     <tableColumn id="10" xr3:uid="{CE0DD46B-3B95-4543-9C5D-90ABA92B907A}" name="reason" dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{E72E3A80-9EBE-4D70-8250-23D610E05193}" name="closed_for_maintenance" dataDxfId="7"/>
@@ -916,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E59BAE-EAED-4611-9ECD-D2146E9DBD95}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,42 +1100,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -990,18 +1153,18 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1012,13 +1175,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1031,13 +1194,13 @@
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1055,18 +1218,18 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1084,18 +1247,18 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1113,18 +1276,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1145,129 +1308,129 @@
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1285,18 +1448,18 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1317,72 +1480,72 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="4">
         <v>0</v>
       </c>
@@ -1398,44 +1561,1241 @@
       <c r="H17" s="4">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>0</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1458,59 +2818,59 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
         <v>113</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>114</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>115</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
       <c r="D2">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>62</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
       </c>
       <c r="D3">
         <v>2007</v>
@@ -1522,18 +2882,18 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>2002</v>
@@ -1545,18 +2905,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>2002</v>
@@ -1568,18 +2928,18 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>2003</v>
@@ -1591,18 +2951,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>2003</v>
@@ -1614,18 +2974,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>2002</v>
@@ -1634,44 +2994,44 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>2019</v>
       </c>
       <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>62</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>2003</v>
@@ -1683,18 +3043,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>2003</v>
@@ -1706,18 +3066,18 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>2007</v>
@@ -1729,18 +3089,18 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>2004</v>
@@ -1752,18 +3112,18 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>2004</v>
@@ -1775,18 +3135,18 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -1798,18 +3158,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>2003</v>
@@ -1821,18 +3181,18 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17">
         <v>2003</v>
@@ -1841,21 +3201,21 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>2003</v>
@@ -1864,21 +3224,21 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>2003</v>
@@ -1887,90 +3247,90 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>2019</v>
       </c>
       <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>62</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>2019</v>
       </c>
       <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>62</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>2019</v>
       </c>
       <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>62</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>2002</v>
@@ -1982,18 +3342,18 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>2007</v>
@@ -2005,64 +3365,64 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>2002</v>
@@ -2074,18 +3434,18 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>2002</v>
@@ -2097,18 +3457,18 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>2002</v>
@@ -2120,18 +3480,18 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>2002</v>
@@ -2143,18 +3503,18 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>2002</v>
@@ -2166,18 +3526,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>2003</v>
@@ -2189,18 +3549,18 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>2003</v>
@@ -2212,18 +3572,18 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>2007</v>
@@ -2235,133 +3595,133 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>2019</v>
       </c>
       <c r="E35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>62</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>2019</v>
       </c>
       <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>62</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37">
         <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>2019</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39">
         <v>2019</v>
       </c>
       <c r="E39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>62</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40">
         <v>2002</v>
@@ -2373,18 +3733,18 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>2002</v>
@@ -2396,64 +3756,64 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>2019</v>
       </c>
       <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>62</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>2020</v>
       </c>
       <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>62</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>2002</v>
@@ -2465,18 +3825,18 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>2007</v>
@@ -2488,156 +3848,156 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>2019</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48">
         <v>2019</v>
       </c>
       <c r="E48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>62</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49">
         <v>2019</v>
       </c>
       <c r="E49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>62</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50">
         <v>2019</v>
       </c>
       <c r="E50" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>62</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51">
         <v>2019</v>
       </c>
       <c r="E51" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>62</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52">
         <v>2002</v>
@@ -2649,41 +4009,41 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>2019</v>
       </c>
       <c r="E53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
         <v>62</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54">
         <v>2003</v>
@@ -2695,18 +4055,18 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55">
         <v>2003</v>
@@ -2718,18 +4078,18 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56">
         <v>2002</v>
@@ -2741,109 +4101,109 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>62</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>2024</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>2024</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>2024</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>2024</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>2024</v>
@@ -2873,10 +4233,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2916,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,7 +4284,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2932,7 +4292,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2940,7 +4300,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2948,7 +4308,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2956,7 +4316,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2964,7 +4324,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2972,7 +4332,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2980,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2988,7 +4348,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2996,7 +4356,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -3004,7 +4364,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -3012,7 +4372,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -3020,7 +4380,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -3028,7 +4388,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -3036,7 +4396,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3044,7 +4404,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -3052,7 +4412,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -3060,7 +4420,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -3068,7 +4428,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3094,13 +4454,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3111,7 +4471,7 @@
         <v>0.375</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3122,7 +4482,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/mapping_tables.xlsx
+++ b/data/mapping_tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maerskbroker-my.sharepoint.com/personal/kbo_maerskbroker_com/Documents/Documents/M scraper/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admkbo\Downloads\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="8_{E82970A2-BBD4-4F32-BE27-31237F44A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B89CBA-9803-41DF-9320-A846EF582A4E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289020DD-1CCD-441B-B2F4-DAC6D01716C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BAC1D2B-409C-4654-934D-3906D9663A7C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="207">
   <si>
     <t>status_en</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>reason</t>
-  </si>
-  <si>
-    <t>Technical issues</t>
   </si>
   <si>
     <t>Maintenance</t>
@@ -607,6 +604,81 @@
   </si>
   <si>
     <t>Lukket frem til kl. 05:00 pga. sporarbejde. Metrobusser kører hvert 20. minut. Se afgangstider på rejseplanen.dk</t>
+  </si>
+  <si>
+    <t>M2: Passagerer til/fra Lufthavnen skal skifte tog på Christianshavn og Lergravsparken</t>
+  </si>
+  <si>
+    <t>I øjeblikket er der togskift på Lergravsparken</t>
+  </si>
+  <si>
+    <t>M1: Ingen togskift Ørestad-Vestamager pga. teknikere i sporet vi genoptager ca. kl. 15:48</t>
+  </si>
+  <si>
+    <t>Passagerer til og fra Vanløse skal skifte tog på Forum og Nørreport</t>
+  </si>
+  <si>
+    <t>ingen drift i øjeblikket. Vi genoptager drift kl. ca. 20:42</t>
+  </si>
+  <si>
+    <t>Alle passagerer mellem Vanløse - Lufthavnen skal skifte tog på Christianshavn. Dette skyldes et teknisk problem ved Amagerbro. Forvent længere rejsetid på strækningen mellem Christianshavn - Lufthavnen.</t>
+  </si>
+  <si>
+    <t>Alle passagerer mellem Vanløse - Lufthavnen skal skifte tog på Christianshavn.</t>
+  </si>
+  <si>
+    <t>Frem til kl. 05:00 erstatter metrobusser al togdrift på M1/M2. Busserne kører hvert 20. minut. Søg din rejse på rejseplanen.dk.</t>
+  </si>
+  <si>
+    <t>Alle passagerer som rejser til/fra Vanløse skal skifte tog på Frederiksberg. Det skyldes et tog med en teknisk fejl nær Lindevang. Forvent længere rejsetid mellem Vanløse - Frederiksberg. I tidsrummet 00:00-05:00 erstatter metrobusser al togdrift på M1/M2 pga. sporarbejde.</t>
+  </si>
+  <si>
+    <t>Passagerer til/fra Vanløse i begge spor skal skifte tog på Frederiksberg</t>
+  </si>
+  <si>
+    <t>Ingen togdrift ml. Vanløse og Frederiksberg pga. tog med teknisk problem ved Lindevang.</t>
+  </si>
+  <si>
+    <t>Forsinkelse ml. Christianshavn og Vestamager pga. langsomt kørende tog</t>
+  </si>
+  <si>
+    <t>Forsinkelser ml. Vanløse og Christianshavn pga. langsomt kørende tog</t>
+  </si>
+  <si>
+    <t>Forsinkelse ml. Nørreport-Vanløse pga. tog med teknisk problem på Nørreport</t>
+  </si>
+  <si>
+    <t>Christianshavn, Amagerbro, Lergravsparken, Øresund, Amager Strand, Femøren, Kastrup, CPH Lufthavn</t>
+  </si>
+  <si>
+    <t>Lergravsparken, Øresund, Amager Strand, Femøren, Kastrup, CPH Lufthavn</t>
+  </si>
+  <si>
+    <t>Ørestad, Vestamager</t>
+  </si>
+  <si>
+    <t>Nørreport, Forum, Frederiksberg, Fasanvej, Lindevang, Flintholm, Vanløse</t>
+  </si>
+  <si>
+    <t>Frederiksberg, Fasanvej, Lindevang, Flintholm, Vanløse</t>
+  </si>
+  <si>
+    <t>Islands Brygge, DR Byen, Sundby, Bella Center, Ørestad, Vestamager, Christianshavn</t>
+  </si>
+  <si>
+    <t>Technical issues with train(s)</t>
+  </si>
+  <si>
+    <t>Technical issues at a station</t>
+  </si>
+  <si>
+    <t>Christianshavn, Kongens Nytorv, Nørreport, Forum, Frederiksberg, Fasanvej, Lindevang, Flintholm, Vanløse</t>
+  </si>
+  <si>
+    <t>Technical issues (unspecified)</t>
+  </si>
+  <si>
+    <t>Technical issues between stations</t>
   </si>
 </sst>
 </file>
@@ -718,8 +790,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}" name="Table2" displayName="Table2" ref="A1:I60" totalsRowShown="0">
-  <autoFilter ref="A1:I60" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}" name="Table2" displayName="Table2" ref="A1:I74" totalsRowShown="0">
+  <autoFilter ref="A1:I74" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A2B24526-B093-4F61-8528-751DBACD919A}" name="status_dk" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{AF80EE63-ECB6-42AC-8C94-7AE1E4203C14}" name="status_en" dataDxfId="9"/>
@@ -1079,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E59BAE-EAED-4611-9ECD-D2146E9DBD95}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1121,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
@@ -1153,12 +1225,12 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
@@ -1175,13 +1247,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1200,7 +1272,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1218,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1226,10 +1298,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1247,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -1255,10 +1327,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1276,18 +1348,18 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1308,129 +1380,129 @@
     </row>
     <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -1448,18 +1520,18 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -1480,71 +1552,71 @@
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1565,13 +1637,13 @@
     </row>
     <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1589,18 +1661,18 @@
         <v>1</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1618,18 +1690,18 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1650,13 +1722,13 @@
     </row>
     <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1674,18 +1746,18 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1706,13 +1778,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1733,13 +1805,13 @@
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1757,18 +1829,18 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -1786,18 +1858,18 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -1815,18 +1887,18 @@
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -1844,18 +1916,18 @@
         <v>1</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1873,18 +1945,18 @@
         <v>0</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -1902,18 +1974,18 @@
         <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -1931,18 +2003,18 @@
         <v>0</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -1960,18 +2032,18 @@
         <v>0</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -1989,18 +2061,18 @@
         <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -2018,18 +2090,18 @@
         <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -2047,18 +2119,18 @@
         <v>0</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -2079,13 +2151,13 @@
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -2103,18 +2175,18 @@
         <v>0</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -2132,18 +2204,18 @@
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -2161,18 +2233,18 @@
         <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -2190,18 +2262,18 @@
         <v>1</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -2219,18 +2291,18 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -2248,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -2277,18 +2349,18 @@
         <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -2306,18 +2378,18 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -2335,18 +2407,18 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -2367,13 +2439,13 @@
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -2391,18 +2463,18 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -2420,18 +2492,18 @@
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -2449,18 +2521,18 @@
         <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -2478,18 +2550,18 @@
         <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -2507,18 +2579,18 @@
         <v>0</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -2536,18 +2608,18 @@
         <v>1</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -2565,18 +2637,18 @@
         <v>1</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -2597,13 +2669,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -2624,13 +2696,13 @@
     </row>
     <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -2648,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -2680,13 +2752,13 @@
     </row>
     <row r="57" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -2704,18 +2776,18 @@
         <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2736,13 +2808,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -2760,18 +2832,18 @@
         <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2789,6 +2861,412 @@
         <v>0</v>
       </c>
       <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2818,59 +3296,59 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>117</v>
-      </c>
-      <c r="G1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
       </c>
       <c r="D2">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>61</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
       </c>
       <c r="D3">
         <v>2007</v>
@@ -2882,18 +3360,18 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>2002</v>
@@ -2905,18 +3383,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>2002</v>
@@ -2928,18 +3406,18 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>2003</v>
@@ -2951,18 +3429,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>2003</v>
@@ -2974,18 +3452,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>2002</v>
@@ -2994,44 +3472,44 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>2019</v>
       </c>
       <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>61</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>2003</v>
@@ -3043,18 +3521,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>2003</v>
@@ -3066,18 +3544,18 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>2007</v>
@@ -3089,18 +3567,18 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>2004</v>
@@ -3112,18 +3590,18 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>2004</v>
@@ -3135,18 +3613,18 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -3158,18 +3636,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>2003</v>
@@ -3181,18 +3659,18 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>2003</v>
@@ -3201,21 +3679,21 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>2003</v>
@@ -3224,21 +3702,21 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>2003</v>
@@ -3247,90 +3725,90 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>2019</v>
       </c>
       <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>61</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>2019</v>
       </c>
       <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>61</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
         <v>2019</v>
       </c>
       <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>61</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>2002</v>
@@ -3342,18 +3820,18 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>2007</v>
@@ -3365,64 +3843,64 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>2002</v>
@@ -3434,18 +3912,18 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>2002</v>
@@ -3457,18 +3935,18 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>2002</v>
@@ -3480,18 +3958,18 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>2002</v>
@@ -3503,18 +3981,18 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31">
         <v>2002</v>
@@ -3526,18 +4004,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32">
         <v>2003</v>
@@ -3549,18 +4027,18 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>2003</v>
@@ -3572,18 +4050,18 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34">
         <v>2007</v>
@@ -3595,133 +4073,133 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>2019</v>
       </c>
       <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>61</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <v>2019</v>
       </c>
       <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>61</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37">
         <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38">
         <v>2019</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39">
         <v>2019</v>
       </c>
       <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>61</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>2002</v>
@@ -3733,18 +4211,18 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>2002</v>
@@ -3756,64 +4234,64 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42">
         <v>2019</v>
       </c>
       <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>61</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <v>2020</v>
       </c>
       <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>61</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44">
         <v>2002</v>
@@ -3825,18 +4303,18 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>2007</v>
@@ -3848,156 +4326,156 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>2019</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48">
         <v>2019</v>
       </c>
       <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>61</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>2019</v>
       </c>
       <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>61</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>2019</v>
       </c>
       <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>61</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>2019</v>
       </c>
       <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>61</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <v>2002</v>
@@ -4009,41 +4487,41 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53">
         <v>2019</v>
       </c>
       <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
         <v>61</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <v>2003</v>
@@ -4055,18 +4533,18 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55">
         <v>2003</v>
@@ -4078,18 +4556,18 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56">
         <v>2002</v>
@@ -4101,109 +4579,109 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>61</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>2024</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <v>2024</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60">
         <v>2024</v>
       </c>
       <c r="G60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>2024</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>2024</v>

--- a/data/mapping_tables.xlsx
+++ b/data/mapping_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admkbo\Downloads\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maerskbroker-my.sharepoint.com/personal/kbo_maerskbroker_com/Documents/Documents/M scraper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC195E9-DFD0-4E01-9750-2CF5833EAE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0D23B89B-D264-4D1B-A229-FDD8B6ADCD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9AEF8CD-7BA2-4990-ACDC-51F61805633C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2BAC1D2B-409C-4654-934D-3906D9663A7C}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="320">
   <si>
     <t>status_en</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>Fire alarm activated</t>
-  </si>
-  <si>
-    <t>Service skipping station(s)</t>
   </si>
   <si>
     <t>Vibenshus Runddel</t>
@@ -770,6 +767,259 @@
   </si>
   <si>
     <t>M3_All, Nordhavn, Orientkaj</t>
+  </si>
+  <si>
+    <t>I øjeblikket har vi ingen togdrift ml. Vanløse - Christianshavn. Øvrige rejseforslag via Rejseplanen</t>
+  </si>
+  <si>
+    <t>Vi er ramt af forsinkelser. Dette skyldes tekniske problemer</t>
+  </si>
+  <si>
+    <t>Kongens Nytorv, Nørreport, Forum, Frederiksberg, Fasanvej, Lindevang, Flintholm, Vanløse</t>
+  </si>
+  <si>
+    <t>Vi forventer togdrift igen i spor 2 kl. 05:15, grundet forsinkelser i forbindelse med nattens sporarbejde.</t>
+  </si>
+  <si>
+    <t>Forsinkelse ml. Christianshavn og CPH Lufthavnen pga. teknisk problem ved Øresund</t>
+  </si>
+  <si>
+    <t>Der standses ikke Amager Strand spor 1, retning CPH Lufthavnen. Skal du af på Amager Strand, kan du køre med toget til Femøren og tage toget tilbage til Amager Strand, retning Vanløse, hvor der standses i spor 2</t>
+  </si>
+  <si>
+    <t>Forsinkelser til/fra CPH Lufthavnen, det skyldes signalproblemer ved Øresund</t>
+  </si>
+  <si>
+    <t>M3: Ingen togdrift i spor 2 på M3. Normal drift i spor 1 og på M4</t>
+  </si>
+  <si>
+    <t>M2_All</t>
+  </si>
+  <si>
+    <t>Ingen togdrift ml. Femøren og CPH Lufthavnen pga. personer i spor</t>
+  </si>
+  <si>
+    <t>Ingen tog standser på Aksel Møllers Have grundet brandalarm.</t>
+  </si>
+  <si>
+    <t>Ingen tog standser på Marmorkirken, det skyldes en brandalarm</t>
+  </si>
+  <si>
+    <t>Ingen togdrift pga. perrondør på Fasanvej</t>
+  </si>
+  <si>
+    <t>Ingen tog standser i øjeblikket på Marmorkirken, det skyldes en brandalarm.</t>
+  </si>
+  <si>
+    <t>Ingen drift ml. Christianshavn og Amagerstrand.</t>
+  </si>
+  <si>
+    <t>Fra kl. 23:00 til 05:00 er M3 og M4 lukket. Det skyldes sporarbejde. Der kører kun metrobusser på M4 mellem Kongens Nytorv og Orientkaj. På resten af strækningen skal du benytte anden transport.</t>
+  </si>
+  <si>
+    <t>Christianshavn, Amagerbro, Lergravsparken, Øresund, Amager Strand</t>
+  </si>
+  <si>
+    <t>M3_All, Kongens Nytorv, Gammel Strand, Rådhuspladsen, Københavns Hovedbanegård</t>
+  </si>
+  <si>
+    <t>Passagerer til/fra Vanløse skal skifte tog på Frederiksberg</t>
+  </si>
+  <si>
+    <t>Ingen togdrift i spor 2. Togene kører normalt i spor 1. M4: Ingen drift til/fra Orientkaj</t>
+  </si>
+  <si>
+    <t>Ingen togdrift grundet tekniske problemer. Ingen tidshorisont på normal drift</t>
+  </si>
+  <si>
+    <t>I øjeblikket er der kun togdrift i spor 1 på M3. Der er ingen togdrift i spor 2 og på M4 mellem Østerport og Orientkaj. Det skyldes tekniske problemer med et tog mellem Københavns Hovedbanegård og Enghave Plads.</t>
+  </si>
+  <si>
+    <t>Ingen drift ml. Frederiksberg og Vanløse. Tog med teknisk problem ved Lindevang</t>
+  </si>
+  <si>
+    <t>Ingen drift ml. Christianshavn og Øresund</t>
+  </si>
+  <si>
+    <t>Techical issues with train(s)</t>
+  </si>
+  <si>
+    <t>Christianshavn, Amagerbro, Lergravsparken, Øresund</t>
+  </si>
+  <si>
+    <t>Til/fra Vestamager, skal du skifte tog på Bella Center</t>
+  </si>
+  <si>
+    <t>Ingen togdrift Bella Center-Vestamager. Det skyldes fejlramt tog på Bella Center</t>
+  </si>
+  <si>
+    <t>Forsinkelser til/fra Vestamager, det skyldes fejlramt tog ved Bella Center</t>
+  </si>
+  <si>
+    <t>Bella Center, Ørestad, Vestamager</t>
+  </si>
+  <si>
+    <t>Ingen togdrift Vanløse-Flintholm. Passagerer til/fra Flintholm skal skifte tog på Frederiksberg. Der er indsat metrobusser Vanløse-Frederiksberg.</t>
+  </si>
+  <si>
+    <t>Lige nu ingen togdrift Frederiksberg-Vanløse. Der er indsat metrobusser mellem Frederiksberg-Vanløse.</t>
+  </si>
+  <si>
+    <t>Passageret til/fra Vanløse skal skifte tog på Frederiksberg. Der er tillige indsat metrobusser mellem Frederiksberg-Vanløse.</t>
+  </si>
+  <si>
+    <t>Passageret til/fra Vanløse skal skifte tog på Frederiksberg. Der er tillige indsat metrobus mellem Frederiksberg-Vanløse.</t>
+  </si>
+  <si>
+    <t>Passagerer til/fra Vanløse skal skifte tog på Frederiksberg.</t>
+  </si>
+  <si>
+    <t>Lige nu ingen togdrift Vanløse-Frederiksberg, Rejsegarantien er trådt i kraft mellem Frederiksberg-Vanløse.</t>
+  </si>
+  <si>
+    <t>Lige nu ingen togdrift mellem Vanløse-Frederiksberg.</t>
+  </si>
+  <si>
+    <t>Alle passagerer til/fra Vanløse skal lige nu skifte tog på Frederiksberg.</t>
+  </si>
+  <si>
+    <t>Lige nu holder alle tog kortvarigt stille grundet teknisk problem ved Vanløse.</t>
+  </si>
+  <si>
+    <t>I øjeblikket længere rejsetid til/fra Vanløse, grundet at der kun kan benyttes et spor på Vanløse Station.</t>
+  </si>
+  <si>
+    <t>Lige nu mindre forsinkelser til/fra Vanløse, grundet et teknisk problem, hvor kun et spor kan benyttes på stationen.</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille på M3/M4 grundet tekniske problemer. Ingen tidshorisont desværre.</t>
+  </si>
+  <si>
+    <t>Ingen stop på Kongens Nytorv, brandalarm.</t>
+  </si>
+  <si>
+    <t>Ingen tog standser på Kongens Nytorv grundet brandalarm.</t>
+  </si>
+  <si>
+    <t>Passagerer til/fra CPH Lufthavnen skal i øjeblikket skifte tog på Christianshavn og Lergravsparken pga. tog med teknisk fejl ved Amagerbro</t>
+  </si>
+  <si>
+    <t>Ingen drift ml. DR Byen og Vestamager</t>
+  </si>
+  <si>
+    <t>Rejse garanti aktiv mellem Kongens Nytorv-Lergravsparken og Sundby.</t>
+  </si>
+  <si>
+    <t>Kongens Nytorv, Christianshavn, Amagerbro, Lergravsparken, Islands Brygge, DR Byen, Sundby</t>
+  </si>
+  <si>
+    <t>DR Byen, Sundby, Bella Center, Ørestad, Vestamager</t>
+  </si>
+  <si>
+    <t>Ingen togdrift mellem Vanløse-Frederiksberg.</t>
+  </si>
+  <si>
+    <t>I øjeblikket ingen togdrift grundet tekniske problemer. Ingen tidshorisont på hvornår vi genoptager togdriften</t>
+  </si>
+  <si>
+    <t>Bemærk! Grundet tekniske problemer kører der kun et tog ml. Vanløse - Frederiksberg. Vi har også indsat metrobusser på strækningen Vanløse - Frederiksberg</t>
+  </si>
+  <si>
+    <t>Grundet tekniske problemer har vi ingen togdrift ml. Vanløse - Lindevang. Metrobusser er indsat på strækningen Vanløse - Frederiksberg.
+Bemærk! Når du rejser ml. Lindevang - CPH Lufthavn/Vestamager skal du skifte tog på Frederiksberg</t>
+  </si>
+  <si>
+    <t>Bemærk! Grundet tekniske problemer kører der kun et tog ml. Vanløse &amp; Frederiksberg. På strækningen har vi også indsat metrobusser</t>
+  </si>
+  <si>
+    <t>Grundet tekniske problemer kører der kun et tog ml. Vanløse &amp; Frederiksberg. På strækningen har vi i stedet indsat metrobusser</t>
+  </si>
+  <si>
+    <t>Lige nu holder alle tog stille grundet et tog ved Forum med tekniske problemer. Personale er på vej til toget.</t>
+  </si>
+  <si>
+    <t>Lige nu holder alle tog stille grundet et tog ved Forum med tekniske problemer.</t>
+  </si>
+  <si>
+    <t>Passagerer til/fra Vanløse skal skifte tog på Frederiksberg. Der er tillige indsat metrobus mellem Frederiksberg-Vanløse.</t>
+  </si>
+  <si>
+    <t>Ingen togdrift ml. Christianshavn-Vestamager vi genoptager kl. ca. 22:35</t>
+  </si>
+  <si>
+    <t>Christianshavn, Islands Brygge, DR Byen, Sundby, Bella Center, Ørestad, Vestamager</t>
+  </si>
+  <si>
+    <t>Ingen togdrift mellem Frederiksberg-Vanløse, det skyldes fejlramt tog på Vanløse</t>
+  </si>
+  <si>
+    <t>Alle tog vender på Frederiksberg, ingen drift Vanløse-Frederiksberg.</t>
+  </si>
+  <si>
+    <t>I øjeblikket ingen drift mellem Vanløse-Nørreport. Alle tog vender Nørreport.</t>
+  </si>
+  <si>
+    <t>Flere tog holder stille, problem med et tog ved Nørreport.</t>
+  </si>
+  <si>
+    <t>Train collision</t>
+  </si>
+  <si>
+    <t>Togdriften genoptaget, dog med forsinkelser</t>
+  </si>
+  <si>
+    <t>I øjeblikket er der kun drift på M4 linjen. Vi kan desværre ikke sige noget om hvornår vi genoptager drift på begge linjer</t>
+  </si>
+  <si>
+    <t>I øjeblikket er der ingen drift på M3 og M4, det skyldes tekniske problemer. Vi har ikke nogen tidshorisont for hvornår vi kommer til at genoptage normal drift og anbefaler at du søger anden transport</t>
+  </si>
+  <si>
+    <t>M3 og M4 kommer ikke til at køre fra 05:30, det skyldes tekniske problemer. Vi har i øjeblikket ikke nogen tidshorisont for hvornår vi kan genoptage normal drift.</t>
+  </si>
+  <si>
+    <t>I aften og nat er der sporarbejde, fra kl. 20:00 til midnat kører togene kun i spor 2. Passagerer der rejser mellem Østerport-Orient Kaj skal skifte tog på Østerport. Fra midnat til kl. 05:30 er M3/M4 lukket, der er indsat busser mellem Kongens Nytorv-Orient Kaj</t>
+  </si>
+  <si>
+    <t>I aften og nat er der sporarbejde. Fra kl. 20:00 til midnat kører togene kun i spor 2. Passagerer der rejser mellem Østerport-Orient Kaj skal skifte tog på Østerport. Fra midnat til kl. 05:30 er M3/M4 lukket, der er indsat busser mellem Kongens Nytorv-Orient Kaj</t>
+  </si>
+  <si>
+    <t>Ingen togdrift ml. Vanløse og Frederiksberg</t>
+  </si>
+  <si>
+    <t>Vi er ramt af forsinkelser til og fra Vestamager!  Vi kører snart normalt igen</t>
+  </si>
+  <si>
+    <t>Lige nu ingen togdrift mellem Femøren-Københavns Lufthavn. Skyldes signalproblem ved Femøren Station.</t>
+  </si>
+  <si>
+    <t>M3 og M4 er lukket frem til kil. 05:30. Der kører kun metrobusser på M4 mellem Kongens Nytorv og Orientkaj. På resten af strækningen skal du benytte anden transport.</t>
+  </si>
+  <si>
+    <t>M3 og M4 er lukket. Der kører kun metrobusser på M4 mellem Kongens Nytorv og Orientkaj. På resten af strækningen skal du benytte anden transport.</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille på M3/M4 grundet tekniske problemer. Rejsegarantien er aktiv.</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille på M3. Rejsegarantien er gældende for M3 linjen.</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille grundet tekniske problemer.</t>
+  </si>
+  <si>
+    <t>Alle tog holder stille i spor 1 grundet tekniske problemer.</t>
+  </si>
+  <si>
+    <t>Der er ingen togdrift. Rejsegarantien er trådt i kraft.</t>
+  </si>
+  <si>
+    <t>Ingen togdrift grundet tekniske problemer. I øjeblikket har vi ingen tidshorisont.</t>
+  </si>
+  <si>
+    <t>Lige nu igen togdrift mellem Nørreport-Vanløse. Skyldes fejlramt tog ved Forum. Personalet er på stedet.</t>
+  </si>
+  <si>
+    <t>Lige nu igen togdrift mellem Nørreport-Vanløse. Skyldes fejlramt tog mellem Nørreport-Forum.</t>
   </si>
 </sst>
 </file>
@@ -884,8 +1134,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}" name="Table2" displayName="Table2" ref="A1:J98" totalsRowShown="0">
-  <autoFilter ref="A1:J98" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}" name="Table2" displayName="Table2" ref="A1:J171" totalsRowShown="0">
+  <autoFilter ref="A1:J171" xr:uid="{C314E41B-CB9C-4666-8112-1C776CCF8BCF}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{A2B24526-B093-4F61-8528-751DBACD919A}" name="status_dk" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{AF80EE63-ECB6-42AC-8C94-7AE1E4203C14}" name="status_en" dataDxfId="10"/>
@@ -1246,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E59BAE-EAED-4611-9ECD-D2146E9DBD95}">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1289,10 +1539,10 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
         <v>1</v>
@@ -1332,7 +1582,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
@@ -1385,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -1420,7 +1670,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -1452,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1484,7 +1734,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -1514,7 +1764,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -1546,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1701,7 +1951,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -1725,15 +1975,15 @@
         <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>48</v>
@@ -1757,18 +2007,18 @@
         <v>0</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1792,13 +2042,13 @@
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -1824,13 +2074,13 @@
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1856,7 +2106,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>46</v>
@@ -1886,10 +2136,10 @@
     </row>
     <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>28</v>
@@ -1913,18 +2163,18 @@
         <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -1948,13 +2198,13 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1978,13 +2228,13 @@
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -2010,13 +2260,13 @@
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -2037,18 +2287,18 @@
         <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -2069,18 +2319,18 @@
         <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -2101,18 +2351,18 @@
         <v>1</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -2133,18 +2383,18 @@
         <v>0</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -2165,18 +2415,18 @@
         <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -2197,18 +2447,18 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -2229,18 +2479,18 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
@@ -2266,13 +2516,13 @@
     </row>
     <row r="33" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="4">
         <v>0</v>
@@ -2293,18 +2543,18 @@
         <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
@@ -2325,18 +2575,18 @@
         <v>0</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -2360,13 +2610,13 @@
     </row>
     <row r="36" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -2387,18 +2637,18 @@
         <v>0</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -2419,18 +2669,18 @@
         <v>0</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -2451,18 +2701,18 @@
         <v>0</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -2483,18 +2733,18 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
@@ -2520,10 +2770,10 @@
     </row>
     <row r="41" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>48</v>
@@ -2547,18 +2797,18 @@
         <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -2579,15 +2829,15 @@
         <v>0</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>48</v>
@@ -2611,15 +2861,15 @@
         <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>48</v>
@@ -2643,18 +2893,18 @@
         <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -2678,13 +2928,13 @@
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -2705,18 +2955,18 @@
         <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -2742,13 +2992,13 @@
     </row>
     <row r="48" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -2769,18 +3019,18 @@
         <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -2801,18 +3051,18 @@
         <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -2833,18 +3083,18 @@
         <v>0</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -2865,18 +3115,18 @@
         <v>1</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -2897,12 +3147,12 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>31</v>
@@ -2932,7 +3182,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>31</v>
@@ -2962,13 +3212,13 @@
     </row>
     <row r="55" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -2989,18 +3239,18 @@
         <v>0</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -3024,13 +3274,13 @@
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -3051,12 +3301,12 @@
         <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>46</v>
@@ -3086,13 +3336,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -3113,15 +3363,15 @@
         <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>28</v>
@@ -3148,13 +3398,13 @@
     </row>
     <row r="61" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -3175,18 +3425,18 @@
         <v>1</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="4">
         <v>0</v>
@@ -3207,12 +3457,12 @@
         <v>1</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>30</v>
@@ -3239,18 +3489,18 @@
         <v>0</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -3271,18 +3521,18 @@
         <v>1</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" s="4">
         <v>0</v>
@@ -3303,18 +3553,18 @@
         <v>0</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="4">
         <v>0</v>
@@ -3335,18 +3585,18 @@
         <v>1</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67" s="4">
         <v>0</v>
@@ -3367,15 +3617,15 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>28</v>
@@ -3399,18 +3649,18 @@
         <v>0</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -3431,18 +3681,18 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" s="4">
         <v>0</v>
@@ -3463,18 +3713,18 @@
         <v>1</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="4">
         <v>0</v>
@@ -3495,18 +3745,18 @@
         <v>0</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D72" s="4">
         <v>0</v>
@@ -3527,18 +3777,18 @@
         <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D73" s="4">
         <v>0</v>
@@ -3559,18 +3809,18 @@
         <v>0</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="4">
         <v>0</v>
@@ -3591,18 +3841,18 @@
         <v>0</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -3623,50 +3873,50 @@
         <v>0</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="D76" s="4">
-        <v>0</v>
-      </c>
-      <c r="E76" s="4">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="4">
-        <v>0</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0</v>
-      </c>
-      <c r="I76" s="4">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D77" s="4">
         <v>0</v>
@@ -3687,18 +3937,18 @@
         <v>0</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D78" s="4">
         <v>0</v>
@@ -3719,18 +3969,18 @@
         <v>0</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="4">
         <v>0</v>
@@ -3751,18 +4001,18 @@
         <v>0</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" s="4">
         <v>0</v>
@@ -3783,18 +4033,18 @@
         <v>0</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D81" s="4">
         <v>0</v>
@@ -3815,18 +4065,18 @@
         <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" s="4">
         <v>0</v>
@@ -3847,18 +4097,18 @@
         <v>0</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" s="4">
         <v>0</v>
@@ -3884,13 +4134,13 @@
     </row>
     <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D84" s="4">
         <v>0</v>
@@ -3911,15 +4161,15 @@
         <v>0</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>28</v>
@@ -3943,18 +4193,18 @@
         <v>0</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D86" s="4">
         <v>0</v>
@@ -3980,13 +4230,13 @@
     </row>
     <row r="87" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D87" s="4">
         <v>0</v>
@@ -4007,18 +4257,18 @@
         <v>1</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D88" s="4">
         <v>0</v>
@@ -4044,13 +4294,13 @@
     </row>
     <row r="89" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D89" s="4">
         <v>0</v>
@@ -4074,13 +4324,13 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D90" s="4">
         <v>0</v>
@@ -4101,18 +4351,18 @@
         <v>0</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D91" s="4">
         <v>0</v>
@@ -4133,18 +4383,18 @@
         <v>1</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D92" s="4">
         <v>0</v>
@@ -4165,18 +4415,18 @@
         <v>0</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D93" s="4">
         <v>0</v>
@@ -4197,18 +4447,18 @@
         <v>0</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94" s="4">
         <v>0</v>
@@ -4229,18 +4479,18 @@
         <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" s="4">
         <v>0</v>
@@ -4261,18 +4511,18 @@
         <v>0</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D96" s="4">
         <v>0</v>
@@ -4293,18 +4543,18 @@
         <v>0</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D97" s="4">
         <v>0</v>
@@ -4325,18 +4575,18 @@
         <v>0</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98" s="4">
         <v>0</v>
@@ -4357,7 +4607,2313 @@
         <v>0</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" s="4">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="4">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="4">
+        <v>1</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="4">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="4">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104" s="4">
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="4">
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>1</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="4">
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="4">
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="4">
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="4">
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <v>1</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="4">
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="4">
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <v>1</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="4">
+        <v>1</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="4">
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <v>1</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D114" s="4">
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114" s="4">
+        <v>1</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>1</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D115" s="4">
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <v>1</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" s="4">
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="4">
+        <v>0</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>1</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="4">
+        <v>0</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" s="4">
+        <v>0</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D121" s="4">
+        <v>0</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121" s="4">
+        <v>0</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="4">
+        <v>0</v>
+      </c>
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="4">
+        <v>0</v>
+      </c>
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+      <c r="F123" s="4">
+        <v>1</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="4">
+        <v>0</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+      <c r="F124" s="4">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D125" s="4">
+        <v>0</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+      <c r="F125" s="4">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D126" s="4">
+        <v>0</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+      <c r="F126" s="4">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="4">
+        <v>0</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+      <c r="F127" s="4">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D128" s="4">
+        <v>0</v>
+      </c>
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+      <c r="F128" s="4">
+        <v>1</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D129" s="4">
+        <v>0</v>
+      </c>
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+      <c r="F129" s="4">
+        <v>1</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" s="4">
+        <v>0</v>
+      </c>
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+      <c r="F130" s="4">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <v>0</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" s="4">
+        <v>0</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="4">
+        <v>0</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
+        <v>0</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D132" s="4">
+        <v>0</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+      <c r="F132" s="4">
+        <v>0</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4">
+        <v>0</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="4">
+        <v>0</v>
+      </c>
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+      <c r="F134" s="4">
+        <v>0</v>
+      </c>
+      <c r="G134" s="4">
+        <v>1</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+      <c r="I134" s="4">
+        <v>0</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="4">
+        <v>0</v>
+      </c>
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+      <c r="F135" s="4">
+        <v>0</v>
+      </c>
+      <c r="G135" s="4">
+        <v>1</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+      <c r="I135" s="4">
+        <v>0</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" s="4">
+        <v>0</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="4">
+        <v>0</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D137" s="4">
+        <v>0</v>
+      </c>
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+      <c r="F137" s="4">
+        <v>1</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+      <c r="I137" s="4">
+        <v>0</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" s="4">
+        <v>0</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+      <c r="F138" s="4">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+      <c r="I138" s="4">
+        <v>0</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+      <c r="F139" s="4">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4">
+        <v>0</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+      <c r="I139" s="4">
+        <v>0</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+      <c r="I140" s="4">
+        <v>0</v>
+      </c>
+      <c r="J140" s="3"/>
+    </row>
+    <row r="141" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D141" s="4">
+        <v>0</v>
+      </c>
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+      <c r="I141" s="4">
+        <v>0</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="4">
+        <v>0</v>
+      </c>
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+      <c r="F142" s="4">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0</v>
+      </c>
+      <c r="I142" s="4">
+        <v>0</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="4">
+        <v>0</v>
+      </c>
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+      <c r="F143" s="4">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0</v>
+      </c>
+      <c r="I143" s="4">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" s="4">
+        <v>0</v>
+      </c>
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+      <c r="F144" s="4">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0</v>
+      </c>
+      <c r="I144" s="4">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D145" s="4">
+        <v>0</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+      <c r="F145" s="4">
+        <v>1</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0</v>
+      </c>
+      <c r="I145" s="4">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+      <c r="I146" s="4">
+        <v>0</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D147" s="4">
+        <v>0</v>
+      </c>
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+      <c r="F147" s="4">
+        <v>1</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0</v>
+      </c>
+      <c r="I147" s="4">
+        <v>1</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D148" s="4">
+        <v>0</v>
+      </c>
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+      <c r="F148" s="4">
+        <v>1</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0</v>
+      </c>
+      <c r="I148" s="4">
+        <v>0</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D149" s="4">
+        <v>0</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+      <c r="F149" s="4">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0</v>
+      </c>
+      <c r="H149" s="4">
+        <v>0</v>
+      </c>
+      <c r="I149" s="4">
+        <v>0</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150" s="4">
+        <v>0</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+      <c r="F150" s="4">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0</v>
+      </c>
+      <c r="I150" s="4">
+        <v>0</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D151" s="4">
+        <v>0</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0</v>
+      </c>
+      <c r="F151" s="4">
+        <v>1</v>
+      </c>
+      <c r="G151" s="4">
+        <v>0</v>
+      </c>
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+      <c r="I151" s="4">
+        <v>0</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" s="4">
+        <v>0</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
+      <c r="F152" s="4">
+        <v>0</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0</v>
+      </c>
+      <c r="I152" s="4">
+        <v>0</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D153" s="4">
+        <v>0</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0</v>
+      </c>
+      <c r="H153" s="4">
+        <v>0</v>
+      </c>
+      <c r="I153" s="4">
+        <v>0</v>
+      </c>
+      <c r="J153" s="3"/>
+    </row>
+    <row r="154" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D154" s="4">
+        <v>0</v>
+      </c>
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+      <c r="F154" s="4">
+        <v>1</v>
+      </c>
+      <c r="G154" s="4">
+        <v>0</v>
+      </c>
+      <c r="H154" s="4">
+        <v>0</v>
+      </c>
+      <c r="I154" s="4">
+        <v>0</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D155" s="4">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+      <c r="F155" s="4">
+        <v>1</v>
+      </c>
+      <c r="G155" s="4">
+        <v>0</v>
+      </c>
+      <c r="H155" s="4">
+        <v>0</v>
+      </c>
+      <c r="I155" s="4">
+        <v>0</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D156" s="4">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+      <c r="F156" s="4">
+        <v>1</v>
+      </c>
+      <c r="G156" s="4">
+        <v>0</v>
+      </c>
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+      <c r="I156" s="4">
+        <v>0</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+      <c r="F157" s="4">
+        <v>0</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0</v>
+      </c>
+      <c r="H157" s="4">
+        <v>0</v>
+      </c>
+      <c r="I157" s="4">
+        <v>0</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="4">
+        <v>1</v>
+      </c>
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+      <c r="F158" s="4">
+        <v>0</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0</v>
+      </c>
+      <c r="I158" s="4">
+        <v>0</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D159" s="4">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>1</v>
+      </c>
+      <c r="G159" s="4">
+        <v>0</v>
+      </c>
+      <c r="H159" s="4">
+        <v>0</v>
+      </c>
+      <c r="I159" s="4">
+        <v>0</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" s="4">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F160" s="4">
+        <v>0</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0</v>
+      </c>
+      <c r="H160" s="4">
+        <v>0</v>
+      </c>
+      <c r="I160" s="4">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>1</v>
+      </c>
+      <c r="G161" s="4">
+        <v>0</v>
+      </c>
+      <c r="H161" s="4">
+        <v>0</v>
+      </c>
+      <c r="I161" s="4">
+        <v>0</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1</v>
+      </c>
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>0</v>
+      </c>
+      <c r="H162" s="4">
+        <v>0</v>
+      </c>
+      <c r="I162" s="4">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>0</v>
+      </c>
+      <c r="H163" s="4">
+        <v>0</v>
+      </c>
+      <c r="I163" s="4">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D164" s="4">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>1</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0</v>
+      </c>
+      <c r="H164" s="4">
+        <v>0</v>
+      </c>
+      <c r="I164" s="4">
+        <v>0</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D165" s="4">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>1</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0</v>
+      </c>
+      <c r="H165" s="4">
+        <v>0</v>
+      </c>
+      <c r="I165" s="4">
+        <v>0</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D166" s="4">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>1</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0</v>
+      </c>
+      <c r="H166" s="4">
+        <v>0</v>
+      </c>
+      <c r="I166" s="4">
+        <v>0</v>
+      </c>
+      <c r="J166" s="3"/>
+    </row>
+    <row r="167" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D167" s="4">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>0</v>
+      </c>
+      <c r="H167" s="4">
+        <v>1</v>
+      </c>
+      <c r="I167" s="4">
+        <v>0</v>
+      </c>
+      <c r="J167" s="3"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D168" s="4">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>1</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0</v>
+      </c>
+      <c r="H168" s="4">
+        <v>0</v>
+      </c>
+      <c r="I168" s="4">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3"/>
+    </row>
+    <row r="169" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="4">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0</v>
+      </c>
+      <c r="H169" s="4">
+        <v>0</v>
+      </c>
+      <c r="I169" s="4">
+        <v>0</v>
+      </c>
+      <c r="J169" s="3"/>
+    </row>
+    <row r="170" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D170" s="4">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>1</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0</v>
+      </c>
+      <c r="H170" s="4">
+        <v>0</v>
+      </c>
+      <c r="I170" s="4">
+        <v>0</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D171" s="4">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>1</v>
+      </c>
+      <c r="G171" s="4">
+        <v>0</v>
+      </c>
+      <c r="H171" s="4">
+        <v>0</v>
+      </c>
+      <c r="I171" s="4">
+        <v>0</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4388,59 +6944,59 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>115</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
       </c>
       <c r="D2">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>59</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
         <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
       </c>
       <c r="D3">
         <v>2007</v>
@@ -4452,18 +7008,18 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>2002</v>
@@ -4475,18 +7031,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>2002</v>
@@ -4498,18 +7054,18 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>2003</v>
@@ -4521,18 +7077,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
         <v>2003</v>
@@ -4544,18 +7100,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>2002</v>
@@ -4564,44 +7120,44 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>2019</v>
       </c>
       <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>59</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>2003</v>
@@ -4613,18 +7169,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>2003</v>
@@ -4636,18 +7192,18 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>2007</v>
@@ -4659,18 +7215,18 @@
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>2004</v>
@@ -4682,18 +7238,18 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>2004</v>
@@ -4705,18 +7261,18 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>2003</v>
@@ -4728,18 +7284,18 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>2003</v>
@@ -4751,18 +7307,18 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>2003</v>
@@ -4771,21 +7327,21 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>2003</v>
@@ -4794,21 +7350,21 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>2003</v>
@@ -4817,90 +7373,90 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>2019</v>
       </c>
       <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>59</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>2019</v>
       </c>
       <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>59</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>2019</v>
       </c>
       <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>59</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>2002</v>
@@ -4912,18 +7468,18 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>2007</v>
@@ -4935,64 +7491,64 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>2002</v>
@@ -5004,18 +7560,18 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>2002</v>
@@ -5027,18 +7583,18 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <v>2002</v>
@@ -5050,18 +7606,18 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>2002</v>
@@ -5073,18 +7629,18 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31">
         <v>2002</v>
@@ -5096,18 +7652,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>2003</v>
@@ -5119,18 +7675,18 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>2003</v>
@@ -5142,18 +7698,18 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>2007</v>
@@ -5165,133 +7721,133 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>2019</v>
       </c>
       <c r="E35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
         <v>59</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <v>2019</v>
       </c>
       <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
         <v>59</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D37">
         <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38">
         <v>2019</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>2019</v>
       </c>
       <c r="E39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
         <v>59</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>2002</v>
@@ -5303,18 +7859,18 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41">
         <v>2002</v>
@@ -5326,64 +7882,64 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>2019</v>
       </c>
       <c r="E42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
         <v>59</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43">
         <v>2020</v>
       </c>
       <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>59</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>2002</v>
@@ -5395,18 +7951,18 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <v>2007</v>
@@ -5418,156 +7974,156 @@
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>2019</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47">
         <v>2019</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>2019</v>
       </c>
       <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
         <v>59</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>2019</v>
       </c>
       <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
         <v>59</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>2019</v>
       </c>
       <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
         <v>59</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>2019</v>
       </c>
       <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
         <v>59</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <v>2002</v>
@@ -5579,41 +8135,41 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>2019</v>
       </c>
       <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
         <v>59</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>2003</v>
@@ -5625,18 +8181,18 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55">
         <v>2003</v>
@@ -5648,18 +8204,18 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56">
         <v>2002</v>
@@ -5671,109 +8227,109 @@
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>2019</v>
       </c>
       <c r="E57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>59</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>2024</v>
       </c>
       <c r="G58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>2024</v>
       </c>
       <c r="G59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>2024</v>
       </c>
       <c r="G60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>2024</v>
       </c>
       <c r="G61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>2024</v>
